--- a/MeetSelf/MeGene/data/SportItem.xlsx
+++ b/MeetSelf/MeGene/data/SportItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Demo\MeetSelf\MeGene\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B2D59F-384C-45E4-BCAD-8D37326E60B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7263CBDE-8CD7-4F56-9FA8-3BF3AFCDD54D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1141" yWindow="1141" windowWidth="11425" windowHeight="8599" xr2:uid="{B1C1C2F8-77C1-40B0-BA96-48796E9B9F9C}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="10067" xr2:uid="{B1C1C2F8-77C1-40B0-BA96-48796E9B9F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>耐力表现能力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,34 +45,62 @@
     <t>rs1800849</t>
   </si>
   <si>
-    <t>什么是有氧运动</t>
-  </si>
-  <si>
-    <t>“有氧运动”和“无氧运动”的根本区别, 在于他们的能量代谢系统不一样。也就是“有氧代谢”与“无氧代谢”是不一样的。有氧代谢是缓慢但持久的供能系统，主要是体内的碳水化合物和脂肪来供能。
+    <t>ACTN3</t>
+  </si>
+  <si>
+    <t>rs1815739</t>
+  </si>
+  <si>
+    <t>ACTN3基因位于11号染色体上，主要在骨骼肌处表达。该基因编码α-辅肌动蛋白-3，是α-辅肌动蛋白家族的一员。α-辅肌动蛋白与肌动蛋白结合，只位于骨骼肌快肌纤维内的z线，与细肌丝结合，维持肌纤维的形态并提供收缩功能。关联分析显示，ACTN3基因上rs1815739位点上的C等位基因与爆发力有显著的相关性。研究发现，该基因第16号外显子第577位的氨基酸由精氨酸变成终止密码子时，α-辅肌动蛋白-3肌动蛋白就会缺失。</t>
+  </si>
+  <si>
+    <t>PPARA</t>
+  </si>
+  <si>
+    <t>rs4253778</t>
+  </si>
+  <si>
+    <t>位于22号染色体上，在肝脏处表达，编码过氧化物酶体增殖活化受体α。该受体参与调控脂肪酸的转运和代谢，对细胞能量代谢有重要作用。关联分析显示，PPARA基因上rs4253778位点上的G等位基因与耐力表现有显著相关性，耐力运动员中G等位基因的频率远高于普通人群中G等位基因的频率。</t>
+  </si>
+  <si>
+    <t>研究常见代谢基因多态性与耐力运动员状态，慢肌纤维比例和最大耗氧量的关系。其中大部分先前被报道与运动员身份或相关的中间表型相关。肌肉纤维成分m。通过免疫组织化学确定45名健康男性的股外侧肌。rs1800849位点携带T等位基因的情况下对耐力有提升作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpretion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geneinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>citation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是有氧运动 “有氧运动”和“无氧运动”的根本区别, 在于他们的能量代谢系统不一样。也就是“有氧代谢”与“无氧代谢”是不一样的。有氧代谢是缓慢但持久的供能系统，主要是体内的碳水化合物和脂肪来供能。
 例如，平常我们不动的时候，身体有持续的氧气供应用来产生能量，维持基础代谢率。当从坐着到起来走动，我们的能量需求增加，导致我们呼吸与心跳略加快。只要运动强度增加不是太多、太快，我们的身体会调整呼吸与心跳，有氧代谢仍然能保持身体能量需要，我们就不会感到太疲惫。基本上我们能持续进行三分钟以上的运动依靠的都是有氧代谢供能系统。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">S Lopez-Leon et al (2016), Sports genetics: the PPARA gene and athletes’ high ability in endurance sports. A systematic review and meta-analysis
-S.B. Drozdovska et al (2013), THE ASSOCIATION OF GENE POLYMORPHISMS WITH ATHLETE STATUS IN UKRAINIANS
-N Jones et al (2016), A genetic-based algorithm for personalized resistance training
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTN3</t>
-  </si>
-  <si>
-    <t>rs1815739</t>
-  </si>
-  <si>
-    <t>ACTN3基因位于11号染色体上，主要在骨骼肌处表达。该基因编码α-辅肌动蛋白-3，是α-辅肌动蛋白家族的一员。α-辅肌动蛋白与肌动蛋白结合，只位于骨骼肌快肌纤维内的z线，与细肌丝结合，维持肌纤维的形态并提供收缩功能。关联分析显示，ACTN3基因上rs1815739位点上的C等位基因与爆发力有显著的相关性。研究发现，该基因第16号外显子第577位的氨基酸由精氨酸变成终止密码子时，α-辅肌动蛋白-3肌动蛋白就会缺失。</t>
-  </si>
-  <si>
-    <t>有氧运动的好处</t>
-  </si>
-  <si>
-    <t>1. 增加身体体质
+    <t>有氧运动的好处 1. 增加身体体质
 长期进行有氧运动的人能增加血红蛋白的数量，提高个人的抵抗能力，延缓衰老，预防动脉硬化，降低心脑血管疾病爆发的几率。
 2. 增强心肺功能
 有氧运动除了塑造体形，还能增加个人体质，帮助增强个人心肺功能，因为肌肉的收缩需要大量的氧气，心脏的收缩次数便会随之增加，每次输入的血液也会随之增加，呼吸次数也增加，肺部收缩的次数也增加，扩张的程度也变大，所以增加了两者耐力，加强了锻炼。
@@ -81,19 +109,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PPARA</t>
-  </si>
-  <si>
-    <t>rs4253778</t>
-  </si>
-  <si>
-    <t>位于22号染色体上，在肝脏处表达，编码过氧化物酶体增殖活化受体α。该受体参与调控脂肪酸的转运和代谢，对细胞能量代谢有重要作用。关联分析显示，PPARA基因上rs4253778位点上的G等位基因与耐力表现有显著相关性，耐力运动员中G等位基因的频率远高于普通人群中G等位基因的频率。</t>
-  </si>
-  <si>
-    <t>有氧运动的禁忌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、没有提前热身 
+    <t xml:space="preserve">有氧运动的禁忌1、没有提前热身 
 很多人晨练的时候，就是起床后直接投入都锻炼中去了，而没有进行任何的热身运动，那么这样很容易因为早晨迷迷糊糊就开始运动而导致受伤的可能，建议运动者在运动之前花几分钟时间热身，慢跑，爬楼梯，或跳跃运动都是可以的，能促使身体血液循环加速，恢复清醒的头脑。 
 2、睡眠不足 
 其实充足的睡眠也是有助于减肥的，特别是第二天要运动的人，如果你每天晚上都玩的很晚，还指望第二天很早就起来精神饱满的晨练根本就是不现实的，即使你调个闹钟起来了，精神也是不好的，这样反而还会有害身体。 
@@ -106,40 +122,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究常见代谢基因多态性与耐力运动员状态，慢肌纤维比例和最大耗氧量的关系。其中大部分先前被报道与运动员身份或相关的中间表型相关。肌肉纤维成分m。通过免疫组织化学确定45名健康男性的股外侧肌。rs1800849位点携带T等位基因的情况下对耐力有提升作用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interpretion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geneinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anwser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>citation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>S.B. Drozdovska et al (2013), THE ASSOCIATION OF GENE POLYMORPHISMS WITH ATHLETE STATUS IN UKRAINIANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S Lopez-Leon et al (2016), Sports genetics: the PPARA gene and athletes’ high ability in endurance sports. A systematic review and meta-analysis
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N Jones et al (2016), A genetic-based algorithm for personalized resistance training</t>
   </si>
 </sst>
 </file>
@@ -205,10 +196,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,44 +515,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E961820-3BA2-4FC6-B4E7-F1F9B07E355D}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -572,22 +560,19 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -595,23 +580,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -619,26 +603,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4"/>
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H2:H4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
